--- a/data/trans_dic/p33_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Edad-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,13; 16,88</t>
+          <t>5,12; 16,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,06; 25,83</t>
+          <t>13,27; 25,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,69; 18,73</t>
+          <t>10,81; 19,4</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,43; 24,79</t>
+          <t>14,24; 25,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,31; 25,72</t>
+          <t>16,72; 25,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,12; 23,41</t>
+          <t>17,05; 23,77</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,07; 26,49</t>
+          <t>18,94; 26,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 29,24</t>
+          <t>23,02; 29,1</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,86; 26,73</t>
+          <t>21,91; 26,87</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,94; 33,06</t>
+          <t>22,2; 32,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,3; 32,98</t>
+          <t>27,19; 33,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,48; 31,66</t>
+          <t>26,06; 32,05</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,14; 33,32</t>
+          <t>26,21; 33,45</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,58; 41,97</t>
+          <t>35,68; 41,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,68; 36,51</t>
+          <t>31,52; 36,69</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,55; 39,6</t>
+          <t>33,77; 39,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,72; 65,55</t>
+          <t>43,8; 67,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,47; 59,06</t>
+          <t>40,37; 56,44</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,14; 27,92</t>
+          <t>24,37; 28,05</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,61; 41,32</t>
+          <t>31,61; 41,57</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,84; 33,98</t>
+          <t>28,78; 34,84</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Edad-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,6 +520,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -506,31 +543,85 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -542,6 +633,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,06%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,38%</t>
+          <t>16,59%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8,23%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>22,46%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>18,71%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14,97%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11,25%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>19,07%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11,57%</t>
         </is>
       </c>
     </row>
@@ -579,17 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,12; 16,34</t>
+          <t>7,87; 13,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,27; 25,92</t>
+          <t>12,62; 19,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>10,81; 19,4</t>
+          <t>13,34; 20,25</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 14,77</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9,48; 15,49</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>18,85; 26,67</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15,31; 22,83</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>10,0; 21,64</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>9,21; 13,37</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>16,55; 21,83</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>15,09; 20,52</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8,1; 16,02</t>
         </is>
       </c>
     </row>
@@ -606,17 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,03%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>21,02%</t>
+          <t>19,47%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>17,6%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14,77%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>15,42%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>20,71%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>15,5%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>19,43%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16,57%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
         </is>
       </c>
     </row>
@@ -629,17 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,24; 25,33</t>
+          <t>9,71; 14,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 25,31</t>
+          <t>16,65; 22,78</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,05; 23,77</t>
+          <t>14,31; 20,85</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10,67; 20,42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>12,63; 18,49</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>17,4; 23,89</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>12,68; 19,07</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15,16; 23,71</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>11,78; 15,66</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>17,65; 22,3</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>14,46; 18,88</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>14,42; 20,46</t>
         </is>
       </c>
     </row>
@@ -656,17 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,35%</t>
+          <t>19,55%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>20,06%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>16,67%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>22,83%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20,95%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>22,62%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>16,46%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>20,25%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>21,36%</t>
         </is>
       </c>
     </row>
@@ -679,17 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,94; 26,44</t>
+          <t>13,35; 19,27</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>23,02; 29,1</t>
+          <t>18,36; 25,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,91; 26,87</t>
+          <t>16,39; 22,97</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>16,5; 23,8</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>13,69; 19,57</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19,84; 26,43</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>17,97; 24,03</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>19,57; 25,64</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14,51; 18,9</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>20,13; 24,55</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 22,65</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>19,21; 23,79</t>
         </is>
       </c>
     </row>
@@ -706,17 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>17,28%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>30,07%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>20,72%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>25,5%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>21,1%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>33,23%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>27,48%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27,56%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>19,19%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29,83%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>24,11%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>26,55%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>22,2; 32,87</t>
+          <t>14,14; 21,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,19; 33,07</t>
+          <t>22,51; 30,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>26,06; 32,05</t>
+          <t>17,56; 24,24</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19,97; 29,91</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17,54; 24,5</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>29,34; 36,94</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24,03; 31,14</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>25,05; 30,61</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16,79; 21,65</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>27,27; 32,61</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>21,76; 26,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>23,6; 29,11</t>
         </is>
       </c>
     </row>
@@ -756,17 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>21,14%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>26,38%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>34,08%</t>
+          <t>24,7%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>28,26%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26,72%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>40,85%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34,59%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>38,54%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>24,0%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33,77%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>29,75%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>33,36%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>26,21; 33,45</t>
+          <t>17,41; 25,72</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>35,68; 41,88</t>
+          <t>21,94; 30,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>31,52; 36,69</t>
+          <t>20,73; 29,47</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>24,84; 32,12</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22,57; 31,11</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36,05; 45,58</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>29,91; 39,41</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>35,41; 41,5</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>21,03; 27,37</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>30,31; 36,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26,88; 33,21</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>30,93; 35,93</t>
         </is>
       </c>
     </row>
@@ -806,17 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>36,58%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>45,04%</t>
+          <t>39,26%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>36,45%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>48,35%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>51,72%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>46,52%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>50,59%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>44,1%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>49,51%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>43,37%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>44,83%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,77; 39,96</t>
+          <t>34,4; 42,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>43,8; 67,79</t>
+          <t>42,01; 51,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>40,37; 56,44</t>
+          <t>35,35; 43,18</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>33,64; 39,83</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>44,78; 52,66</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>48,15; 55,42</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>42,68; 50,45</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>43,53; 67,73</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>41,23; 47,08</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>46,43; 52,39</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>40,76; 46,1</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>40,19; 56,39</t>
         </is>
       </c>
     </row>
@@ -856,17 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>26,16%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>34,17%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>24,16%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>24,04%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32,51%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>28,52%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32,45%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>28,55%</t>
         </is>
       </c>
     </row>
@@ -879,17 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>24,37; 28,05</t>
+          <t>16,94; 19,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>31,61; 41,57</t>
+          <t>24,42; 27,43</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28,78; 34,84</t>
+          <t>21,74; 24,76</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>22,48; 25,91</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>22,67; 25,72</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>30,95; 33,99</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26,92; 30,05</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>29,85; 40,15</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>20,33; 22,43</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>28,08; 30,33</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>24,86; 27,01</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>26,99; 33,43</t>
         </is>
       </c>
     </row>
@@ -901,14 +1631,17 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/p33_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,87; 13,53</t>
+          <t>7,76; 13,69</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,62; 19,58</t>
+          <t>12,64; 19,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,34; 20,25</t>
+          <t>12,99; 20,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,13; 14,77</t>
+          <t>4,03; 14,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,48; 15,49</t>
+          <t>9,64; 15,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,85; 26,67</t>
+          <t>18,81; 27,06</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,31; 22,83</t>
+          <t>14,97; 22,93</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,0; 21,64</t>
+          <t>9,8; 20,48</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,21; 13,37</t>
+          <t>9,35; 13,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,55; 21,83</t>
+          <t>16,74; 21,76</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,09; 20,52</t>
+          <t>15,13; 20,27</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,1; 16,02</t>
+          <t>8,28; 15,28</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,71; 14,93</t>
+          <t>9,7; 14,66</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,65; 22,78</t>
+          <t>16,61; 22,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,31; 20,85</t>
+          <t>14,67; 21,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,67; 20,42</t>
+          <t>11,09; 19,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,63; 18,49</t>
+          <t>12,73; 18,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,4; 23,89</t>
+          <t>17,52; 24,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,68; 19,07</t>
+          <t>12,7; 18,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,16; 23,71</t>
+          <t>15,98; 23,9</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,78; 15,66</t>
+          <t>11,86; 15,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,65; 22,3</t>
+          <t>17,98; 22,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,46; 18,88</t>
+          <t>14,52; 18,91</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,42; 20,46</t>
+          <t>14,43; 20,48</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,35; 19,27</t>
+          <t>13,47; 19,5</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>18,36; 25,13</t>
+          <t>17,97; 24,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,39; 22,97</t>
+          <t>16,51; 22,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 23,8</t>
+          <t>16,57; 23,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,69; 19,57</t>
+          <t>13,92; 19,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,84; 26,43</t>
+          <t>19,6; 26,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,03</t>
+          <t>17,94; 24,03</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,57; 25,64</t>
+          <t>19,46; 25,95</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,51; 18,9</t>
+          <t>14,61; 18,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>20,13; 24,55</t>
+          <t>19,83; 24,31</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 22,65</t>
+          <t>18,07; 22,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,21; 23,79</t>
+          <t>19,06; 23,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,14; 21,25</t>
+          <t>13,8; 20,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,51; 30,27</t>
+          <t>22,59; 30,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 24,24</t>
+          <t>17,64; 24,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,97; 29,91</t>
+          <t>19,27; 29,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,54; 24,5</t>
+          <t>17,5; 25,07</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,34; 36,94</t>
+          <t>29,24; 37,23</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,03; 31,14</t>
+          <t>23,77; 31,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,05; 30,61</t>
+          <t>25,01; 30,48</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,79; 21,65</t>
+          <t>16,6; 21,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,27; 32,61</t>
+          <t>27,19; 32,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,76; 26,89</t>
+          <t>21,82; 26,78</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,6; 29,11</t>
+          <t>23,05; 28,89</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,41; 25,72</t>
+          <t>17,35; 25,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,94; 30,82</t>
+          <t>21,96; 30,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,73; 29,47</t>
+          <t>20,5; 28,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,84; 32,12</t>
+          <t>24,89; 32,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,57; 31,11</t>
+          <t>22,63; 30,92</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,05; 45,58</t>
+          <t>36,08; 46,05</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>29,91; 39,41</t>
+          <t>30,53; 39,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,41; 41,5</t>
+          <t>35,45; 41,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>21,03; 27,37</t>
+          <t>20,99; 26,87</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,31; 36,75</t>
+          <t>30,63; 37,17</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,88; 33,21</t>
+          <t>26,63; 32,86</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,93; 35,93</t>
+          <t>30,95; 35,81</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>34,4; 42,66</t>
+          <t>33,95; 42,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,01; 51,11</t>
+          <t>42,36; 51,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,35; 43,18</t>
+          <t>35,34; 43,34</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,64; 39,83</t>
+          <t>33,45; 39,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,78; 52,66</t>
+          <t>44,29; 52,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,15; 55,42</t>
+          <t>48,07; 55,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,68; 50,45</t>
+          <t>42,97; 50,39</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,53; 67,73</t>
+          <t>43,48; 65,49</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,23; 47,08</t>
+          <t>41,03; 47,08</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>46,43; 52,39</t>
+          <t>46,39; 52,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>40,76; 46,1</t>
+          <t>40,74; 46,19</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,19; 56,39</t>
+          <t>40,28; 59,01</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,94; 19,92</t>
+          <t>17,16; 20,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24,42; 27,43</t>
+          <t>24,21; 27,39</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,74; 24,76</t>
+          <t>21,7; 24,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,48; 25,91</t>
+          <t>22,23; 25,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,67; 25,72</t>
+          <t>22,68; 25,65</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>30,95; 33,99</t>
+          <t>30,84; 34,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>26,92; 30,05</t>
+          <t>26,98; 30,09</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,85; 40,15</t>
+          <t>29,79; 40,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,33; 22,43</t>
+          <t>20,32; 22,3</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>28,08; 30,33</t>
+          <t>28,27; 30,45</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,86; 27,01</t>
+          <t>24,81; 27,04</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>26,99; 33,43</t>
+          <t>27,03; 32,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/p33_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,23%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>14,97%</t>
+          <t>15,01%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>11,57%</t>
+          <t>11,71%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,03; 14,69</t>
+          <t>4,34; 15,88</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,8; 20,48</t>
+          <t>9,81; 20,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 15,28</t>
+          <t>8,28; 15,8</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>14,77%</t>
+          <t>15,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>19,43%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,29%</t>
+          <t>16,9%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,09; 19,83</t>
+          <t>11,74; 20,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 23,9</t>
+          <t>11,12; 22,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>14,43; 20,48</t>
+          <t>12,97; 20,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>20,39%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>22,62%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>21,36%</t>
+          <t>21,68%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 23,83</t>
+          <t>16,9; 24,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,46; 25,95</t>
+          <t>19,8; 26,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,06; 23,71</t>
+          <t>19,4; 24,09</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>25,5%</t>
+          <t>20,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,56%</t>
+          <t>27,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>23,37%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>19,27; 29,95</t>
+          <t>9,32; 29,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>25,01; 30,48</t>
+          <t>22,75; 30,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,05; 28,89</t>
+          <t>14,77; 28,54</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>38,54%</t>
+          <t>38,97%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>33,36%</t>
+          <t>33,88%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>24,89; 32,09</t>
+          <t>25,52; 32,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,45; 41,7</t>
+          <t>35,89; 42,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,14 +1339,14 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>30,95; 35,81</t>
+          <t>31,44; 36,36</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>38,35%</t>
+          <t>35,79%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>46,59%</t>
+          <t>45,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>39,26%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>36,45%</t>
+          <t>34,76%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,35%</t>
+          <t>43,16%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>51,72%</t>
+          <t>46,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>46,52%</t>
+          <t>47,09%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>50,59%</t>
+          <t>60,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>44,1%</t>
+          <t>39,76%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>46,18%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>43,37%</t>
+          <t>42,21%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>44,83%</t>
+          <t>51,0%</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,95; 42,59</t>
+          <t>30,7; 41,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,36; 51,26</t>
+          <t>39,71; 51,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>35,34; 43,34</t>
+          <t>31,33; 42,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>33,45; 39,37</t>
+          <t>30,85; 38,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>44,29; 52,12</t>
+          <t>38,22; 48,4</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,07; 55,81</t>
+          <t>41,3; 51,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,97; 50,39</t>
+          <t>42,0; 52,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>43,48; 65,49</t>
+          <t>39,44; 88,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41,03; 47,08</t>
+          <t>35,84; 43,37</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>46,39; 52,56</t>
+          <t>42,46; 50,37</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>40,74; 46,19</t>
+          <t>38,41; 45,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,28; 59,01</t>
+          <t>36,76; 74,3</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>41,94%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>25,91%</t>
+          <t>47,52%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>23,22%</t>
+          <t>42,58%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>24,04%</t>
+          <t>53,63%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>56,51%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>28,52%</t>
+          <t>45,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>32,45%</t>
+          <t>48,56%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>21,34%</t>
+          <t>49,16%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>53,01%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>25,93%</t>
+          <t>44,64%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>28,55%</t>
+          <t>44,94%</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>35,84; 49,19</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>40,67; 54,3</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>36,93; 48,18</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>35,13; 44,26</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>47,56; 59,59</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>51,16; 61,3</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40,03; 51,8</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>45,03; 51,99</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>44,81; 53,88</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>48,48; 57,17</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>40,69; 48,75</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>42,12; 47,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>18,53%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>25,91%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>23,22%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>23,08%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24,04%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>32,51%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>28,52%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>34,03%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>29,28%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>25,93%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>17,16; 20,12</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>24,21; 27,39</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>21,7; 24,75</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>22,23; 25,89</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>16,67; 25,59</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>22,68; 25,65</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>30,84; 34,27</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>26,98; 30,09</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>29,79; 40,06</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>29,28; 47,11</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>20,32; 22,3</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>28,27; 30,45</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>24,81; 27,04</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>27,03; 32,27</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>25,58; 35,16</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_dic/p33_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/p33_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,76; 13,69</t>
+          <t>7,7; 13,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,64; 19,11</t>
+          <t>12,84; 19,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,99; 20,56</t>
+          <t>13,1; 20,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,34; 15,88</t>
+          <t>4,59; 15,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,64; 15,31</t>
+          <t>9,33; 15,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,81; 27,06</t>
+          <t>18,46; 26,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>14,97; 22,93</t>
+          <t>15,46; 23,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>9,81; 20,52</t>
+          <t>10,29; 20,97</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,49</t>
+          <t>9,38; 13,49</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16,74; 21,76</t>
+          <t>16,44; 21,61</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>15,13; 20,27</t>
+          <t>14,84; 20,37</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,28; 15,8</t>
+          <t>8,14; 15,64</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,7; 14,66</t>
+          <t>9,66; 14,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,61; 22,57</t>
+          <t>16,68; 22,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,67; 21,14</t>
+          <t>14,8; 21,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,74; 20,98</t>
+          <t>11,33; 21,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,73; 18,29</t>
+          <t>12,79; 18,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,52; 24,23</t>
+          <t>17,42; 24,14</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 18,73</t>
+          <t>12,81; 18,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,12; 22,8</t>
+          <t>10,91; 22,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>11,86; 15,65</t>
+          <t>11,9; 15,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,98; 22,98</t>
+          <t>17,81; 22,5</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14,52; 18,91</t>
+          <t>14,56; 18,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,97; 20,42</t>
+          <t>12,85; 20,08</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>13,47; 19,5</t>
+          <t>13,31; 19,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,96</t>
+          <t>18,16; 24,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,62</t>
+          <t>16,44; 22,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,9; 24,28</t>
+          <t>16,85; 24,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>13,92; 19,81</t>
+          <t>13,87; 19,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>19,6; 26,33</t>
+          <t>19,33; 26,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,94; 24,03</t>
+          <t>17,73; 24,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,8; 26,27</t>
+          <t>20,08; 25,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 18,61</t>
+          <t>14,43; 18,52</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19,83; 24,31</t>
+          <t>20,02; 24,73</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>18,07; 22,53</t>
+          <t>18,11; 22,59</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>19,4; 24,09</t>
+          <t>19,5; 24,17</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,8; 20,9</t>
+          <t>14,01; 20,91</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,59; 30,42</t>
+          <t>22,94; 30,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,64; 24,28</t>
+          <t>17,71; 24,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,32; 29,66</t>
+          <t>9,39; 29,98</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,5; 25,07</t>
+          <t>17,5; 24,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,24; 37,23</t>
+          <t>29,23; 37,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,77; 31,08</t>
+          <t>23,99; 31,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,75; 30,29</t>
+          <t>22,69; 30,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,6; 21,92</t>
+          <t>16,93; 21,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>27,19; 32,8</t>
+          <t>27,24; 32,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>21,82; 26,78</t>
+          <t>21,53; 26,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,77; 28,54</t>
+          <t>13,73; 28,75</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>17,35; 25,48</t>
+          <t>17,25; 25,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>21,96; 30,96</t>
+          <t>22,06; 30,78</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,5; 28,95</t>
+          <t>20,69; 28,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,52; 32,82</t>
+          <t>25,39; 32,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,63; 30,92</t>
+          <t>22,44; 31,29</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,08; 46,05</t>
+          <t>36,1; 45,47</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,53; 39,37</t>
+          <t>30,01; 38,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>35,89; 42,21</t>
+          <t>35,75; 42,1</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>20,99; 26,87</t>
+          <t>20,87; 26,95</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,63; 37,17</t>
+          <t>30,47; 37,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>26,63; 32,86</t>
+          <t>26,72; 32,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>31,44; 36,36</t>
+          <t>31,42; 36,44</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>30,7; 41,61</t>
+          <t>30,02; 41,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>39,71; 51,61</t>
+          <t>39,72; 52,12</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>31,33; 42,06</t>
+          <t>31,21; 41,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>30,85; 38,68</t>
+          <t>30,61; 39,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,22; 48,4</t>
+          <t>38,49; 48,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>41,3; 51,23</t>
+          <t>41,17; 51,7</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>42,0; 52,38</t>
+          <t>41,48; 51,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>39,44; 88,37</t>
+          <t>39,42; 84,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>35,84; 43,37</t>
+          <t>36,21; 43,96</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>42,46; 50,37</t>
+          <t>42,24; 50,02</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>38,41; 45,83</t>
+          <t>38,07; 45,95</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>36,76; 74,3</t>
+          <t>37,0; 74,22</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>35,84; 49,19</t>
+          <t>34,96; 48,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40,67; 54,3</t>
+          <t>40,48; 54,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,93; 48,18</t>
+          <t>37,28; 48,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>35,13; 44,26</t>
+          <t>35,31; 44,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>47,56; 59,59</t>
+          <t>47,5; 58,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>51,16; 61,3</t>
+          <t>50,73; 61,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>40,03; 51,8</t>
+          <t>40,63; 52,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>45,03; 51,99</t>
+          <t>45,24; 52,22</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>44,81; 53,88</t>
+          <t>45,08; 53,21</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>48,48; 57,17</t>
+          <t>48,57; 56,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>40,69; 48,75</t>
+          <t>40,43; 48,89</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>42,12; 47,71</t>
+          <t>41,92; 47,48</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>17,16; 20,12</t>
+          <t>17,2; 19,84</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>24,21; 27,39</t>
+          <t>24,41; 27,43</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>21,7; 24,75</t>
+          <t>21,7; 24,66</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,67; 25,59</t>
+          <t>17,43; 25,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,68; 25,65</t>
+          <t>22,6; 25,49</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,84; 34,27</t>
+          <t>30,76; 34,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,98; 30,09</t>
+          <t>26,86; 30,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>29,28; 47,11</t>
+          <t>29,33; 46,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,32; 22,3</t>
+          <t>20,31; 22,3</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>28,27; 30,45</t>
+          <t>28,16; 30,45</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>24,81; 27,04</t>
+          <t>24,85; 26,95</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>25,58; 35,16</t>
+          <t>25,69; 35,04</t>
         </is>
       </c>
     </row>
@@ -1787,4 +1788,1839 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no duerme las horas de sueño recomendadas (Sociedad Española del Sueño)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>50148</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>71744</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>69606</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>33352</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>56986</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>96393</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>73865</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>45925</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>107134</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>168137</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>143471</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>79277</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>37533; 65569</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>58084; 88433</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>54932; 87300</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>17021; 57708</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>43369; 71452</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>79225; 114577</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>61045; 91825</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>31495; 64191</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>89296; 128489</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>144885; 190450</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>120833; 165906</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>55116; 105947</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>87225</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>133585</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>103902</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>63803</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>95724</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>126181</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>87071</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>89724</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>182948</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>259766</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>190973</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>153526</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>70176; 107548</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>114451; 156368</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>87406; 124771</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46076; 85511</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>79420; 115119</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>106095; 147066</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>71969; 105136</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>54717; 114636</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>160282; 209929</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>230698; 291399</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>167785; 218174</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>116661; 182366</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>101591</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>145446</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>130465</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>106694</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>114503</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>161840</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>138575</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>119740</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>216094</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>307285</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>269040</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>226434</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>83343; 121525</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>123293; 167757</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>109740; 153126</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>88168; 126736</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>95288; 134273</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>137030; 185902</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>117245; 158818</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>104590; 134383</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>189423; 243120</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>277916; 343301</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>240673; 300223</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>203574; 252362</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>510</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>88554</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>161826</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>133410</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>178328</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>108140</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>204739</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>177512</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>189220</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>196695</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>366565</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>310922</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>367548</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>71761; 107136</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>140535; 185600</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>114026; 154479</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>81972; 261853</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>89692; 125826</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>180129; 229465</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>154951; 203623</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>158597; 210524</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>173494; 224788</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>334772; 400454</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>277745; 343157</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>215921; 452097</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>80613</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>112655</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>117774</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>158129</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>107109</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>182075</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>171522</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>205557</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>187722</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>294730</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>289296</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>363686</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>65756; 96990</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>94234; 131437</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>98622; 137831</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>138597; 179064</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>89968; 125417</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>160904; 202703</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>148778; 192951</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>188574; 222085</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>163265; 210775</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>265975; 323959</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>259828; 318210</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>337320; 391184</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>103703</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>142005</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>122778</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>126155</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>145953</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>164101</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>177419</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>364379</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>249656</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>306106</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>300197</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>490535</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>86994; 119341</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>123033; 161455</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>104342; 140266</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>111104; 141817</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>130158; 162980</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>145390; 182552</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>156292; 194929</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>236073; 506557</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>227378; 276078</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>280009; 331611</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>270717; 326747</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>355850; 713853</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>86546</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>117257</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>108687</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>108240</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>178584</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>218432</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>180940</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>196451</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>265130</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>335690</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>289627</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>304691</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>72151; 100440</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>99871; 133793</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>95159; 123579</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>96535; 122209</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>158167; 196355</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>196100; 237103</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>159889; 206104</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>183027; 211260</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>243109; 287005</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>307603; 358465</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>262288; 317148</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>284183; 321888</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>586</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>779</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>1070</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>917</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1783</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1365</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1895</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1664</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>2689</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>598379</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>884519</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>786621</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>774702</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>807000</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1153761</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>1006904</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>1210995</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1405378</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2038279</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1793526</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1985697</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>555576; 640897</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>833100; 936225</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>735079; 835347</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>585241; 853643</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>758572; 855771</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>1091762; 1208400</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>948199; 1061415</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1043775; 1642349</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1338043; 1468558</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1960964; 2120399</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1718740; 1864026</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1776509; 2422836</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>